--- a/analysis/pre_gemini_data/participant 290/Sheet3.xlsx
+++ b/analysis/pre_gemini_data/participant 290/Sheet3.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ10"/>
+  <dimension ref="A1:AJ9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,182 +422,178 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg1</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>arg2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>arg3</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>arg4</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>arg5</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>arg6</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>arg7</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>assign1</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>assign3</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>condbody</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>condbody2</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>condstat4</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>condstate</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>condstate2</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>exception</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>external</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>literal</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>litral2</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>loopbody</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>loopstate</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>methodcall</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>methodcall2</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>methodcall3</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>methodcall4</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>methodcall5</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>methodcall6</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>methoddec</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>params</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>var</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>var2</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>var3</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>var5</t>
         </is>
@@ -668,7 +652,7 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -683,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
         <v>16</v>
       </c>
       <c r="K3" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L3" t="n">
         <v>3</v>
@@ -720,7 +704,7 @@
         <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="W3" t="n">
         <v>11</v>
@@ -750,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
@@ -776,7 +760,7 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
         <v>12</v>
@@ -791,13 +775,13 @@
         <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J4" t="n">
         <v>44</v>
       </c>
       <c r="K4" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L4" t="n">
         <v>5</v>
@@ -828,7 +812,7 @@
         <v>3</v>
       </c>
       <c r="V4" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W4" t="n">
         <v>22</v>
@@ -858,7 +842,7 @@
         <v>1</v>
       </c>
       <c r="AF4" t="n">
-        <v>170</v>
+        <v>108</v>
       </c>
       <c r="AG4" t="n">
         <v>1</v>
@@ -884,7 +868,7 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>3486.19</v>
+        <v>3336.11</v>
       </c>
       <c r="E5" t="n">
         <v>2603.57</v>
@@ -899,13 +883,13 @@
         <v>550.59</v>
       </c>
       <c r="I5" t="n">
-        <v>7257.09</v>
+        <v>7107.01</v>
       </c>
       <c r="J5" t="n">
         <v>11529.01</v>
       </c>
       <c r="K5" t="n">
-        <v>50822.09</v>
+        <v>50271.53</v>
       </c>
       <c r="L5" t="n">
         <v>1000.97</v>
@@ -936,7 +920,7 @@
         <v>817.49</v>
       </c>
       <c r="V5" t="n">
-        <v>38058.8</v>
+        <v>37641.72</v>
       </c>
       <c r="W5" t="n">
         <v>6139.28</v>
@@ -966,7 +950,7 @@
         <v>333.67</v>
       </c>
       <c r="AF5" t="n">
-        <v>55606.23</v>
+        <v>38789.16</v>
       </c>
       <c r="AG5" t="n">
         <v>83.37</v>
@@ -988,105 +972,105 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>1.58</v>
+        <v>2.53</v>
       </c>
       <c r="E6" t="n">
-        <v>1.18</v>
+        <v>1.98</v>
       </c>
       <c r="F6" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.76</v>
       </c>
-      <c r="G6" t="n">
-        <v>0.45</v>
-      </c>
       <c r="H6" t="n">
-        <v>0.25</v>
+        <v>0.42</v>
       </c>
       <c r="I6" t="n">
-        <v>3.29</v>
+        <v>5.4</v>
       </c>
       <c r="J6" t="n">
-        <v>5.22</v>
+        <v>8.75</v>
       </c>
       <c r="K6" t="n">
-        <v>23.02</v>
+        <v>38.17</v>
       </c>
       <c r="L6" t="n">
-        <v>0.45</v>
+        <v>0.76</v>
       </c>
       <c r="M6" t="n">
-        <v>8.19</v>
+        <v>13.73</v>
       </c>
       <c r="N6" t="n">
-        <v>3.42</v>
+        <v>5.73</v>
       </c>
       <c r="O6" t="n">
-        <v>2.33</v>
+        <v>3.9</v>
       </c>
       <c r="P6" t="n">
-        <v>4.79</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.97</v>
+        <v>1.63</v>
       </c>
       <c r="R6" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="S6" t="n">
         <v>31.62</v>
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="V6" t="n">
+        <v>28.58</v>
+      </c>
+      <c r="W6" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z6" t="n">
         <v>0.37</v>
       </c>
-      <c r="V6" t="n">
-        <v>17.24</v>
-      </c>
-      <c r="W6" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0.22</v>
-      </c>
       <c r="AA6" t="n">
-        <v>2.05</v>
+        <v>3.43</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.64</v>
+        <v>1.08</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.96</v>
+        <v>3.29</v>
       </c>
       <c r="AD6" t="n">
-        <v>4.24</v>
+        <v>7.11</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="AF6" t="n">
-        <v>25.19</v>
+        <v>29.45</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.73</v>
+        <v>1.22</v>
       </c>
       <c r="AJ6" t="n">
-        <v>2.12</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="7">
@@ -1100,7 +1084,7 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>387.35</v>
+        <v>417.01</v>
       </c>
       <c r="E7" t="n">
         <v>216.96</v>
@@ -1115,13 +1099,13 @@
         <v>275.29</v>
       </c>
       <c r="I7" t="n">
-        <v>290.28</v>
+        <v>296.13</v>
       </c>
       <c r="J7" t="n">
         <v>262.02</v>
       </c>
       <c r="K7" t="n">
-        <v>239.73</v>
+        <v>241.69</v>
       </c>
       <c r="L7" t="n">
         <v>200.19</v>
@@ -1152,7 +1136,7 @@
         <v>272.5</v>
       </c>
       <c r="V7" t="n">
-        <v>243.97</v>
+        <v>246.02</v>
       </c>
       <c r="W7" t="n">
         <v>279.06</v>
@@ -1182,7 +1166,7 @@
         <v>333.67</v>
       </c>
       <c r="AF7" t="n">
-        <v>327.1</v>
+        <v>359.16</v>
       </c>
       <c r="AG7" t="n">
         <v>83.37</v>
@@ -1343,44 +1327,6 @@
       <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
